--- a/ExcelData/Excel_Data_For_Test.xlsx
+++ b/ExcelData/Excel_Data_For_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22710" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22680" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>categoryName</t>
+    <t>userName</t>
   </si>
   <si>
-    <t>packageName</t>
+    <t>password</t>
   </si>
   <si>
-    <t>Economy Category</t>
+    <t>westwood</t>
   </si>
   <si>
-    <t>Package GNG_10 4th</t>
+    <t>Qwer4321!</t>
   </si>
 </sst>
 </file>
@@ -48,15 +48,15 @@
     </font>
     <font>
       <sz val="9.6"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
       <color rgb="FF374151"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -68,7 +68,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,10 +102,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,7 +391,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,19 +400,19 @@
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
